--- a/findbyfilewebelement/src/test/resources/excel/ValidFilePathCustomSheetData.xlsx
+++ b/findbyfilewebelement/src/test/resources/excel/ValidFilePathCustomSheetData.xlsx
@@ -22,9 +22,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>file.excel.pagefactory.ExcelFileProcessorTest$ValidFilePathCustomSheetPage</t>
-  </si>
-  <si>
     <t>Using</t>
   </si>
   <si>
@@ -35,6 +32,9 @@
   </si>
   <si>
     <t>Class</t>
+  </si>
+  <si>
+    <t>file.pagefactory.excel.ExcelFileProcessorTest$ValidFilePathCustomSheetPage</t>
   </si>
 </sst>
 </file>
@@ -379,21 +379,21 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
